--- a/docs/spec/tables/non-primitives.xlsx
+++ b/docs/spec/tables/non-primitives.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\dsl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\repos\cs3423-project\docs\spec\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B26E92-4514-4D33-A1EC-657965C4B468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39EA2E6-6500-497A-8A5A-1F1DAD49F359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80D8C4F5-3D34-44DF-B7D6-9FF257957546}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>Range of cells</t>
   </si>
   <si>
-    <t>range data = A1:A10;</t>
-  </si>
-  <si>
     <t>array</t>
   </si>
   <si>
@@ -80,28 +77,33 @@
     <t>Represents structured range of cells with headers and data rows</t>
   </si>
   <si>
-    <t>table sample = A1:D100;</t>
-  </si>
-  <si>
     <t>formula</t>
   </si>
   <si>
     <t>Datatype that holds formula</t>
   </si>
   <si>
-    <t>formula f1 = SUM(A1:A10) / 10;</t>
-  </si>
-  <si>
     <t>struct</t>
   </si>
   <si>
     <t>User-defined datatype combining multiple primitive and/or non-primitive data types</t>
   </si>
   <si>
+    <t>table tab1;</t>
+  </si>
+  <si>
+    <t>range data = (1:5:1, 1:5:1);
+range rng = (1:5:1);
+range col = (2, 1:5:1);</t>
+  </si>
+  <si>
+    <t>formula f1 = SUM(1,1:10:2) / 10;</t>
+  </si>
+  <si>
     <t>class example {
-int id;
-string name;
-double price;
+    int id;
+    string name;
+    double price;
 };
 class example = {id: 101, name: "widget", price: 19.99}</t>
   </si>
@@ -499,18 +501,18 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="12.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -532,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -540,48 +542,48 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="25" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="87.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>

--- a/docs/spec/tables/non-primitives.xlsx
+++ b/docs/spec/tables/non-primitives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\repos\cs3423-project\docs\spec\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39EA2E6-6500-497A-8A5A-1F1DAD49F359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3C5FB0-A45A-4430-9388-D4B575DB3190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80D8C4F5-3D34-44DF-B7D6-9FF257957546}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.08984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.7265625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="12.6328125" style="2"/>
@@ -545,7 +545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>

--- a/docs/spec/tables/non-primitives.xlsx
+++ b/docs/spec/tables/non-primitives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\repos\cs3423-project\docs\spec\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3C5FB0-A45A-4430-9388-D4B575DB3190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AF13C3-2D3F-4EC5-AF1F-618E0FB570F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80D8C4F5-3D34-44DF-B7D6-9FF257957546}"/>
   </bookViews>
@@ -500,19 +500,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAA00F9-1958-4299-BCCE-66D9004F88FB}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.08984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.7265625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="12.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/docs/spec/tables/non-primitives.xlsx
+++ b/docs/spec/tables/non-primitives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\repos\cs3423-project\docs\spec\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AF13C3-2D3F-4EC5-AF1F-618E0FB570F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5605B1-476A-453D-8ECB-D11826B051C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80D8C4F5-3D34-44DF-B7D6-9FF257957546}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>Datatype that holds formula</t>
   </si>
   <si>
-    <t>struct</t>
-  </si>
-  <si>
     <t>User-defined datatype combining multiple primitive and/or non-primitive data types</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
     double price;
 };
 class example = {id: 101, name: "widget", price: 19.99}</t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAA00F9-1958-4299-BCCE-66D9004F88FB}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -522,7 +524,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -533,18 +535,18 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -555,36 +557,36 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/spec/tables/non-primitives.xlsx
+++ b/docs/spec/tables/non-primitives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\repos\cs3423-project\docs\spec\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5605B1-476A-453D-8ECB-D11826B051C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48541AF8-4606-4B71-83AA-9E9D89821362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80D8C4F5-3D34-44DF-B7D6-9FF257957546}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Single cell in the sheet</t>
   </si>
   <si>
-    <t>cell A1 = 5;</t>
-  </si>
-  <si>
     <t>range</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>List of values of same primitive data type</t>
   </si>
   <si>
-    <t>int[5] num = [1,2,3,4,5];</t>
-  </si>
-  <si>
     <t>table</t>
   </si>
   <si>
@@ -86,26 +80,29 @@
     <t>User-defined datatype combining multiple primitive and/or non-primitive data types</t>
   </si>
   <si>
-    <t>table tab1;</t>
-  </si>
-  <si>
-    <t>range data = (1:5:1, 1:5:1);
-range rng = (1:5:1);
-range col = (2, 1:5:1);</t>
-  </si>
-  <si>
-    <t>formula f1 = SUM(1,1:10:2) / 10;</t>
-  </si>
-  <si>
-    <t>class example {
-    int id;
-    string name;
-    double price;
+    <t>class</t>
+  </si>
+  <si>
+    <t>let f1 = FORMULA([a, b], SUM);</t>
+  </si>
+  <si>
+    <t>let tab1 = TABLE();</t>
+  </si>
+  <si>
+    <t>let num = [1,2,3,4,5];</t>
+  </si>
+  <si>
+    <t>let rng = 1:5~1;</t>
+  </si>
+  <si>
+    <t>let A1 = CELL(5);</t>
+  </si>
+  <si>
+    <t>struct example {
+    let id = 1, speaker = "john";
+    let country = "au";
 };
-class example = {id: 101, name: "widget", price: 19.99}</t>
-  </si>
-  <si>
-    <t>class</t>
+const exampleObj = example(101, "widget", 19.99);</t>
   </si>
 </sst>
 </file>
@@ -501,14 +498,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.08984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.36328125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="12.6328125" style="2"/>
   </cols>
   <sheetData>
@@ -523,7 +520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -531,62 +528,62 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/spec/tables/non-primitives.xlsx
+++ b/docs/spec/tables/non-primitives.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\repos\cs3423-project\docs\spec\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\excel_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48541AF8-4606-4B71-83AA-9E9D89821362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463148FE-377A-4FED-8D1F-31ECAFEE7B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80D8C4F5-3D34-44DF-B7D6-9FF257957546}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Datatype</t>
   </si>
@@ -71,38 +71,29 @@
     <t>Represents structured range of cells with headers and data rows</t>
   </si>
   <si>
-    <t>formula</t>
-  </si>
-  <si>
-    <t>Datatype that holds formula</t>
-  </si>
-  <si>
     <t>User-defined datatype combining multiple primitive and/or non-primitive data types</t>
   </si>
   <si>
     <t>class</t>
   </si>
   <si>
-    <t>let f1 = FORMULA([a, b], SUM);</t>
-  </si>
-  <si>
-    <t>let tab1 = TABLE();</t>
-  </si>
-  <si>
     <t>let num = [1,2,3,4,5];</t>
   </si>
   <si>
     <t>let rng = 1:5~1;</t>
   </si>
   <si>
-    <t>let A1 = CELL(5);</t>
+    <t>let tab1 = new TABLE();</t>
+  </si>
+  <si>
+    <t>let A1 = new CELL(5);</t>
   </si>
   <si>
     <t>struct example {
     let id = 1, speaker = "john";
     let country = "au";
 };
-const exampleObj = example(101, "widget", 19.99);</t>
+const exampleObj = new example(101, "widget", 19.99);</t>
   </si>
 </sst>
 </file>
@@ -495,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAA00F9-1958-4299-BCCE-66D9004F88FB}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -528,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -539,10 +530,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -550,10 +541,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -561,29 +552,18 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/spec/tables/non-primitives.xlsx
+++ b/docs/spec/tables/non-primitives.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\excel_work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\bkchxdi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463148FE-377A-4FED-8D1F-31ECAFEE7B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F25D4A-8E73-4087-B1BD-3F629F9CCBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80D8C4F5-3D34-44DF-B7D6-9FF257957546}"/>
   </bookViews>
@@ -83,17 +83,17 @@
     <t>let rng = 1:5~1;</t>
   </si>
   <si>
-    <t>let tab1 = new TABLE();</t>
-  </si>
-  <si>
-    <t>let A1 = new CELL(5);</t>
-  </si>
-  <si>
     <t>struct example {
     let id = 1, speaker = "john";
     let country = "au";
 };
 const exampleObj = new example(101, "widget", 19.99);</t>
+  </si>
+  <si>
+    <t>let A1 = new cell(5);</t>
+  </si>
+  <si>
+    <t>let tab1 = new table();</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.3">
@@ -563,7 +563,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
